--- a/SP_Sklad/TempLate/FinResult(17).xlsx
+++ b/SP_Sklad/TempLate/FinResult(17).xlsx
@@ -31,7 +31,7 @@
     <definedName name="WBWriteOff">Лист1!$A$47:$K$48</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1030,6 +1030,42 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1039,62 +1075,95 @@
     <xf numFmtId="0" fontId="7" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="20" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1120,92 +1189,23 @@
     <xf numFmtId="164" fontId="20" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,11 +1577,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1599,18 +1597,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
     </row>
     <row r="2" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
@@ -1628,11 +1626,11 @@
       <c r="B3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="102" t="e">
+      <c r="C3" s="53" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="D3" s="102"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -1667,84 +1665,84 @@
       <c r="K5" s="19"/>
     </row>
     <row r="6" spans="2:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="54" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="54" t="s">
+      <c r="H6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="54" t="s">
+      <c r="J6" s="55"/>
+      <c r="K6" s="45" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
       <c r="I7" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="55"/>
+      <c r="K7" s="46"/>
     </row>
     <row r="8" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="44" t="e">
+      <c r="B8" s="56" t="e">
         <f>MatGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="46"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="49"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="99"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="50" t="e">
+      <c r="C10" s="100" t="e">
         <f>MatList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="101"/>
+      <c r="F10" s="102"/>
       <c r="G10" s="37" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -1767,15 +1765,15 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
       <c r="I11" s="15"/>
       <c r="J11" s="14" t="s">
         <v>0</v>
@@ -1785,17 +1783,17 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="67"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="42" t="s">
         <v>30</v>
       </c>
@@ -1839,84 +1837,84 @@
       <c r="K15" s="19"/>
     </row>
     <row r="16" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="60" t="s">
+      <c r="C16" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="54" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="J16" s="59"/>
-      <c r="K16" s="54" t="s">
+      <c r="J16" s="55"/>
+      <c r="K16" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K17" s="55"/>
+      <c r="K17" s="46"/>
     </row>
     <row r="18" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="44" t="e">
+      <c r="B18" s="56" t="e">
         <f>MatGroup2_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="58"/>
     </row>
     <row r="19" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="95"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="97"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
     </row>
     <row r="20" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="e">
         <f>MatSelPr_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C20" s="98" t="e">
+      <c r="C20" s="62" t="e">
         <f>MatSelPr_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="100"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="2" t="e">
         <f>MatSelPr_MSRNAME</f>
         <v>#NAME?</v>
@@ -1939,15 +1937,15 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
       <c r="I21" s="15"/>
       <c r="J21" s="14" t="s">
         <v>0</v>
@@ -1957,17 +1955,17 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
       <c r="K22" s="42" t="s">
         <v>30</v>
       </c>
@@ -2011,78 +2009,78 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="74" t="s">
+      <c r="C26" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76" t="s">
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="80" t="s">
+      <c r="I26" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="80" t="s">
+      <c r="J26" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="80" t="s">
+      <c r="K26" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="81"/>
-      <c r="C27" s="77"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="81"/>
-      <c r="J27" s="81"/>
-      <c r="K27" s="81"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="82"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="83"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
     </row>
     <row r="28" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="82" t="e">
+      <c r="B28" s="68" t="e">
         <f>SvcGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
+      <c r="C28" s="69"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="70"/>
     </row>
     <row r="29" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="85"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="86"/>
-      <c r="F29" s="86"/>
-      <c r="G29" s="86"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
-      <c r="J29" s="86"/>
-      <c r="K29" s="87"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="72"/>
+      <c r="J29" s="72"/>
+      <c r="K29" s="73"/>
     </row>
     <row r="30" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="88" t="e">
+      <c r="C30" s="86" t="e">
         <f>SvcOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="89"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="90"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="88"/>
       <c r="H30" s="25" t="e">
         <f>SvcOutDet_MSRNAME</f>
         <v>#NAME?</v>
@@ -2101,15 +2099,15 @@
       </c>
     </row>
     <row r="31" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
       <c r="I31" s="31"/>
       <c r="J31" s="29"/>
       <c r="K31" s="30" t="s">
@@ -2117,17 +2115,17 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="67"/>
+      <c r="I32" s="67"/>
+      <c r="J32" s="67"/>
       <c r="K32" s="43" t="s">
         <v>31</v>
       </c>
@@ -2172,58 +2170,58 @@
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
-      <c r="B36" s="80" t="s">
+      <c r="B36" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80" t="s">
+      <c r="E36" s="76"/>
+      <c r="F36" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80" t="s">
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
-      <c r="B37" s="94"/>
-      <c r="C37" s="94"/>
-      <c r="D37" s="94"/>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="94"/>
-      <c r="H37" s="94"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="94"/>
-      <c r="K37" s="94"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="85"/>
+      <c r="E37" s="85"/>
+      <c r="F37" s="85"/>
+      <c r="G37" s="85"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
+      <c r="J37" s="85"/>
+      <c r="K37" s="85"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
-      <c r="B38" s="91" t="e">
+      <c r="B38" s="74" t="e">
         <f>DocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="92" t="e">
+      <c r="C38" s="74"/>
+      <c r="D38" s="75" t="e">
         <f>DocList_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="E38" s="92"/>
-      <c r="F38" s="93" t="e">
+      <c r="E38" s="75"/>
+      <c r="F38" s="84" t="e">
         <f>DocList_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
       <c r="K38" s="32" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
@@ -2231,15 +2229,15 @@
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="G39" s="53"/>
-      <c r="H39" s="53"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="31"/>
       <c r="J39" s="29"/>
       <c r="K39" s="30" t="s">
@@ -2286,70 +2284,70 @@
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="80" t="s">
+      <c r="B43" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="74" t="s">
+      <c r="C43" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="75"/>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76" t="s">
+      <c r="D43" s="79"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="80" t="s">
+      <c r="I43" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="80" t="s">
+      <c r="J43" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="80" t="s">
+      <c r="K43" s="76" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
-      <c r="B44" s="81"/>
-      <c r="C44" s="77"/>
-      <c r="D44" s="78"/>
-      <c r="E44" s="78"/>
-      <c r="F44" s="78"/>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="81"/>
-      <c r="J44" s="81"/>
-      <c r="K44" s="81"/>
+      <c r="B44" s="77"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="82"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
+      <c r="I44" s="77"/>
+      <c r="J44" s="77"/>
+      <c r="K44" s="77"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
-      <c r="B45" s="82" t="e">
+      <c r="B45" s="68" t="e">
         <f>MatGroup3_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C45" s="83"/>
-      <c r="D45" s="83"/>
-      <c r="E45" s="83"/>
-      <c r="F45" s="83"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="83"/>
-      <c r="I45" s="83"/>
-      <c r="J45" s="83"/>
-      <c r="K45" s="84"/>
+      <c r="C45" s="69"/>
+      <c r="D45" s="69"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="69"/>
+      <c r="K45" s="70"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="23"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="86"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="86"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="86"/>
-      <c r="I46" s="86"/>
-      <c r="J46" s="86"/>
-      <c r="K46" s="87"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="72"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="72"/>
+      <c r="G46" s="72"/>
+      <c r="H46" s="72"/>
+      <c r="I46" s="72"/>
+      <c r="J46" s="72"/>
+      <c r="K46" s="73"/>
     </row>
     <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="23"/>
@@ -2357,14 +2355,14 @@
         <f>WBWriteOff_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C47" s="88" t="e">
+      <c r="C47" s="86" t="e">
         <f>WBWriteOff_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D47" s="89"/>
-      <c r="E47" s="89"/>
-      <c r="F47" s="89"/>
-      <c r="G47" s="90"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="87"/>
+      <c r="G47" s="88"/>
       <c r="H47" s="25" t="e">
         <f>WBWriteOff_MSRNAME</f>
         <v>#NAME?</v>
@@ -2384,15 +2382,15 @@
     </row>
     <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="65"/>
+      <c r="F48" s="65"/>
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
       <c r="I48" s="35"/>
       <c r="J48" s="33"/>
       <c r="K48" s="34" t="s">
@@ -2400,17 +2398,17 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="67"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="67"/>
+      <c r="I49" s="67"/>
+      <c r="J49" s="67"/>
       <c r="K49" s="42" t="s">
         <v>32</v>
       </c>
@@ -2436,33 +2434,33 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="70" t="s">
+      <c r="B52" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
-      <c r="H52" s="71"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="66" t="e">
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
+      <c r="F52" s="94"/>
+      <c r="G52" s="94"/>
+      <c r="H52" s="94"/>
+      <c r="I52" s="94"/>
+      <c r="J52" s="89" t="e">
         <f>K12-K22+K32-K39-K49</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K52" s="67"/>
+      <c r="K52" s="90"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="72"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="73"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="73"/>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="73"/>
-      <c r="J53" s="68"/>
-      <c r="K53" s="69"/>
+      <c r="B53" s="95"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="96"/>
+      <c r="F53" s="96"/>
+      <c r="G53" s="96"/>
+      <c r="H53" s="96"/>
+      <c r="I53" s="96"/>
+      <c r="J53" s="91"/>
+      <c r="K53" s="92"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
@@ -2477,62 +2475,31 @@
     </row>
     <row r="55" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="B18:K19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B28:K29"/>
+    <mergeCell ref="B8:K9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="J52:K53"/>
+    <mergeCell ref="B52:I53"/>
+    <mergeCell ref="C43:G44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="B45:K46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="B48:H48"/>
+    <mergeCell ref="B49:J49"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="K26:K27"/>
@@ -2549,29 +2516,19 @@
     <mergeCell ref="J26:J27"/>
     <mergeCell ref="B36:C37"/>
     <mergeCell ref="C30:G30"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="B45:K46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="B48:H48"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="J52:K53"/>
-    <mergeCell ref="B52:I53"/>
-    <mergeCell ref="C43:G44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="K43:K44"/>
-    <mergeCell ref="B8:K9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:F17"/>
+    <mergeCell ref="B18:K19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B28:K29"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I6:J6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/FinResult(17).xlsx
+++ b/SP_Sklad/TempLate/FinResult(17).xlsx
@@ -141,9 +141,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;\ h:mm;@"/>
     <numFmt numFmtId="166" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
@@ -1120,9 +1119,6 @@
     <xf numFmtId="14" fontId="19" fillId="6" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1206,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="17" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1720,29 +1719,29 @@
       <c r="K8" s="58"/>
     </row>
     <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="97"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="98"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="98"/>
-      <c r="J9" s="98"/>
-      <c r="K9" s="99"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="97"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="36" t="e">
         <f>MatList_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="100" t="e">
+      <c r="C10" s="99" t="e">
         <f>MatList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="101"/>
       <c r="G10" s="37" t="e">
         <f>MatList_MSRNAME</f>
         <v>#NAME?</v>
@@ -2009,40 +2008,40 @@
       <c r="K25" s="19"/>
     </row>
     <row r="26" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80" t="s">
+      <c r="D26" s="78"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="76" t="s">
+      <c r="I26" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="76" t="s">
+      <c r="J26" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="76" t="s">
+      <c r="K26" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="27" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="77"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="76"/>
+      <c r="J27" s="76"/>
+      <c r="K27" s="76"/>
     </row>
     <row r="28" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="68" t="e">
@@ -2073,14 +2072,14 @@
     </row>
     <row r="30" spans="2:11" s="23" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="24"/>
-      <c r="C30" s="86" t="e">
+      <c r="C30" s="85" t="e">
         <f>SvcOutDet_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="88"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="87"/>
       <c r="H30" s="25" t="e">
         <f>SvcOutDet_MSRNAME</f>
         <v>#NAME?</v>
@@ -2170,58 +2169,58 @@
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="23"/>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76" t="s">
+      <c r="C36" s="75"/>
+      <c r="D36" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76" t="s">
+      <c r="E36" s="75"/>
+      <c r="F36" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76" t="s">
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="23"/>
-      <c r="B37" s="85"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="85"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
-      <c r="J37" s="85"/>
-      <c r="K37" s="85"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="84"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
     </row>
     <row r="38" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="23"/>
-      <c r="B38" s="74" t="e">
+      <c r="B38" s="102" t="e">
         <f>DocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75" t="e">
+      <c r="C38" s="102"/>
+      <c r="D38" s="74" t="e">
         <f>DocList_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="84" t="e">
+      <c r="E38" s="74"/>
+      <c r="F38" s="83" t="e">
         <f>DocList_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
-      <c r="J38" s="84"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
+      <c r="J38" s="83"/>
       <c r="K38" s="32" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
@@ -2284,41 +2283,41 @@
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="23"/>
-      <c r="B43" s="76" t="s">
+      <c r="B43" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="78" t="s">
+      <c r="C43" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="79"/>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80" t="s">
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I43" s="76" t="s">
+      <c r="I43" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="J43" s="76" t="s">
+      <c r="J43" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="K43" s="76" t="s">
+      <c r="K43" s="75" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="23"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="83"/>
-      <c r="H44" s="83"/>
-      <c r="I44" s="77"/>
-      <c r="J44" s="77"/>
-      <c r="K44" s="77"/>
+      <c r="B44" s="76"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
+      <c r="G44" s="82"/>
+      <c r="H44" s="82"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="23"/>
@@ -2355,14 +2354,14 @@
         <f>WBWriteOff_BARCODE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C47" s="86" t="e">
+      <c r="C47" s="85" t="e">
         <f>WBWriteOff_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="88"/>
+      <c r="D47" s="86"/>
+      <c r="E47" s="86"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="87"/>
       <c r="H47" s="25" t="e">
         <f>WBWriteOff_MSRNAME</f>
         <v>#NAME?</v>
@@ -2434,33 +2433,33 @@
       <c r="I51" s="9"/>
     </row>
     <row r="52" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="93" t="s">
+      <c r="B52" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
-      <c r="F52" s="94"/>
-      <c r="G52" s="94"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="94"/>
-      <c r="J52" s="89" t="e">
-        <f>K12-K22+K32-K39-K49</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K52" s="90"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+      <c r="G52" s="93"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="93"/>
+      <c r="J52" s="88" t="e">
+        <f>Summary_Total</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="K52" s="89"/>
     </row>
     <row r="53" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="95"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="96"/>
-      <c r="E53" s="96"/>
-      <c r="F53" s="96"/>
-      <c r="G53" s="96"/>
-      <c r="H53" s="96"/>
-      <c r="I53" s="96"/>
-      <c r="J53" s="91"/>
-      <c r="K53" s="92"/>
+      <c r="B53" s="94"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="95"/>
+      <c r="G53" s="95"/>
+      <c r="H53" s="95"/>
+      <c r="I53" s="95"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="91"/>
     </row>
     <row r="54" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
